--- a/data/pca/factorExposure/factorExposure_2009-06-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01676611854674234</v>
+        <v>0.01647925853188563</v>
       </c>
       <c r="C2">
-        <v>0.001440805829432846</v>
+        <v>-0.00105786698955069</v>
       </c>
       <c r="D2">
-        <v>0.00880113519554915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009046089080739022</v>
+      </c>
+      <c r="E2">
+        <v>-0.001349795655610975</v>
+      </c>
+      <c r="F2">
+        <v>-0.01213167878798217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09077429305651866</v>
+        <v>0.09177236972380556</v>
       </c>
       <c r="C4">
-        <v>0.01971144869715506</v>
+        <v>-0.01474112012748489</v>
       </c>
       <c r="D4">
-        <v>0.07762393044902202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08204974745565762</v>
+      </c>
+      <c r="E4">
+        <v>-0.02635609310547028</v>
+      </c>
+      <c r="F4">
+        <v>0.03146018488410296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-7.379957598898335e-06</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.199473234738143e-07</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-4.351908674214729e-05</v>
+      </c>
+      <c r="E5">
+        <v>-3.697809282069784e-05</v>
+      </c>
+      <c r="F5">
+        <v>-9.576698685029815e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1532339991046445</v>
+        <v>0.1618023530116799</v>
       </c>
       <c r="C6">
-        <v>0.02948694771868917</v>
+        <v>-0.02897611451768766</v>
       </c>
       <c r="D6">
-        <v>-0.03805600404957566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02673212462242868</v>
+      </c>
+      <c r="E6">
+        <v>-0.01009599769130144</v>
+      </c>
+      <c r="F6">
+        <v>0.04087835660149912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05945532585225072</v>
+        <v>0.06180103516319044</v>
       </c>
       <c r="C7">
-        <v>0.001764715082861373</v>
+        <v>0.001597222480792608</v>
       </c>
       <c r="D7">
-        <v>0.04850000937776354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05309875406620397</v>
+      </c>
+      <c r="E7">
+        <v>-0.01285857568974195</v>
+      </c>
+      <c r="F7">
+        <v>0.04938077206411887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06181685868850108</v>
+        <v>0.05736244193529358</v>
       </c>
       <c r="C8">
-        <v>-0.01035921751042036</v>
+        <v>0.01231997547393717</v>
       </c>
       <c r="D8">
-        <v>0.02654848353148132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03106403012939138</v>
+      </c>
+      <c r="E8">
+        <v>-0.01754516688033748</v>
+      </c>
+      <c r="F8">
+        <v>-0.0267742790350633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07011059838311497</v>
+        <v>0.07113680437019662</v>
       </c>
       <c r="C9">
-        <v>0.01591269914323909</v>
+        <v>-0.01044771941965923</v>
       </c>
       <c r="D9">
-        <v>0.07779343636476714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0849536769507148</v>
+      </c>
+      <c r="E9">
+        <v>-0.02353835201280063</v>
+      </c>
+      <c r="F9">
+        <v>0.04808829768079781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08489473250982255</v>
+        <v>0.08707965973729472</v>
       </c>
       <c r="C10">
-        <v>0.01470743240685804</v>
+        <v>-0.02155210331568312</v>
       </c>
       <c r="D10">
-        <v>-0.1661589888187886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1600218557493097</v>
+      </c>
+      <c r="E10">
+        <v>0.03339673441000779</v>
+      </c>
+      <c r="F10">
+        <v>-0.05819019413672769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09087643478955422</v>
+        <v>0.08748386352452593</v>
       </c>
       <c r="C11">
-        <v>0.0171125119504279</v>
+        <v>-0.01148939671530396</v>
       </c>
       <c r="D11">
-        <v>0.1104888438266971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1175728151624142</v>
+      </c>
+      <c r="E11">
+        <v>-0.04768922369153012</v>
+      </c>
+      <c r="F11">
+        <v>0.024654151545036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09576037210097102</v>
+        <v>0.0901371453099017</v>
       </c>
       <c r="C12">
-        <v>0.01530659027430468</v>
+        <v>-0.00878805383916985</v>
       </c>
       <c r="D12">
-        <v>0.1167741585204871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320396980339106</v>
+      </c>
+      <c r="E12">
+        <v>-0.04722717841853984</v>
+      </c>
+      <c r="F12">
+        <v>0.03155736542385502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04499336888909889</v>
+        <v>0.04402340936564703</v>
       </c>
       <c r="C13">
-        <v>0.006639801256891257</v>
+        <v>-0.002785414182516552</v>
       </c>
       <c r="D13">
-        <v>0.04341836958123407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05356395291705341</v>
+      </c>
+      <c r="E13">
+        <v>0.0002555885364947407</v>
+      </c>
+      <c r="F13">
+        <v>0.004940315225970105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01941638062958892</v>
+        <v>0.02352850859190872</v>
       </c>
       <c r="C14">
-        <v>0.01519362132013852</v>
+        <v>-0.01374329315924001</v>
       </c>
       <c r="D14">
-        <v>0.02952577441731746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03246489886206161</v>
+      </c>
+      <c r="E14">
+        <v>-0.01822226246621718</v>
+      </c>
+      <c r="F14">
+        <v>0.01153095447554448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03395549968706668</v>
+        <v>0.03376860803884935</v>
       </c>
       <c r="C15">
-        <v>0.007604455613704528</v>
+        <v>-0.005360946504731086</v>
       </c>
       <c r="D15">
-        <v>0.04370728805355041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04693199502530249</v>
+      </c>
+      <c r="E15">
+        <v>-0.008114601084956565</v>
+      </c>
+      <c r="F15">
+        <v>0.02919158410176576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0744096928472556</v>
+        <v>0.07233548616754568</v>
       </c>
       <c r="C16">
-        <v>0.007570984839235757</v>
+        <v>-0.001600331442916762</v>
       </c>
       <c r="D16">
-        <v>0.114956247383915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1281402034852244</v>
+      </c>
+      <c r="E16">
+        <v>-0.06160271972970889</v>
+      </c>
+      <c r="F16">
+        <v>0.02774563695449855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.000670133224003503</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0004335463144260252</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002299755433478412</v>
+      </c>
+      <c r="E17">
+        <v>-0.001641293016490878</v>
+      </c>
+      <c r="F17">
+        <v>-0.002664561242337563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02305252673542962</v>
+        <v>0.04079193701965777</v>
       </c>
       <c r="C18">
-        <v>-0.002491786224487686</v>
+        <v>0.00256042850073963</v>
       </c>
       <c r="D18">
-        <v>0.02496523557212535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01566692259072477</v>
+      </c>
+      <c r="E18">
+        <v>0.006005312394072707</v>
+      </c>
+      <c r="F18">
+        <v>-0.0096743659203588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06342292871033214</v>
+        <v>0.06214820568739728</v>
       </c>
       <c r="C20">
-        <v>0.005419846047996422</v>
+        <v>-0.001077645139755094</v>
       </c>
       <c r="D20">
-        <v>0.06995646719286498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0788829547838171</v>
+      </c>
+      <c r="E20">
+        <v>-0.05757611755849974</v>
+      </c>
+      <c r="F20">
+        <v>0.02936790338883927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03897365900555266</v>
+        <v>0.04052698855563333</v>
       </c>
       <c r="C21">
-        <v>0.009391468112135155</v>
+        <v>-0.006378334227696856</v>
       </c>
       <c r="D21">
-        <v>0.03389501647028566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03611418383943029</v>
+      </c>
+      <c r="E21">
+        <v>0.002960283650945418</v>
+      </c>
+      <c r="F21">
+        <v>-0.02481354278195051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04072306031166981</v>
+        <v>0.04423679750343056</v>
       </c>
       <c r="C22">
-        <v>0.001970018429367139</v>
+        <v>-0.001001694317397297</v>
       </c>
       <c r="D22">
-        <v>-0.001451503602703271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007243657540051824</v>
+      </c>
+      <c r="E22">
+        <v>-0.0374916647431163</v>
+      </c>
+      <c r="F22">
+        <v>-0.04679570400309347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04068571812280308</v>
+        <v>0.04421249409722881</v>
       </c>
       <c r="C23">
-        <v>0.00195941797140925</v>
+        <v>-0.0009924833610654123</v>
       </c>
       <c r="D23">
-        <v>-0.001427394125554217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007257857053049448</v>
+      </c>
+      <c r="E23">
+        <v>-0.03767433147105715</v>
+      </c>
+      <c r="F23">
+        <v>-0.04676822180675692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08192399187210045</v>
+        <v>0.07813742234567612</v>
       </c>
       <c r="C24">
-        <v>0.00818597186003079</v>
+        <v>-0.002426359821306867</v>
       </c>
       <c r="D24">
-        <v>0.1151844881267571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1202669509603934</v>
+      </c>
+      <c r="E24">
+        <v>-0.04924442739620613</v>
+      </c>
+      <c r="F24">
+        <v>0.03019477902921127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08672701520265941</v>
+        <v>0.08328447587124146</v>
       </c>
       <c r="C25">
-        <v>0.01048818837922454</v>
+        <v>-0.005188670554260802</v>
       </c>
       <c r="D25">
-        <v>0.1015996111814031</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095449518080841</v>
+      </c>
+      <c r="E25">
+        <v>-0.03264252522433197</v>
+      </c>
+      <c r="F25">
+        <v>0.0278423006434241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05758337132689191</v>
+        <v>0.05977431758324424</v>
       </c>
       <c r="C26">
-        <v>0.01797571770200692</v>
+        <v>-0.01455650532374114</v>
       </c>
       <c r="D26">
-        <v>0.03109703679535016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04329335260563819</v>
+      </c>
+      <c r="E26">
+        <v>-0.02890715897742702</v>
+      </c>
+      <c r="F26">
+        <v>-0.007911599494260017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1334611553302371</v>
+        <v>0.1421316800797253</v>
       </c>
       <c r="C28">
-        <v>0.01343233152847174</v>
+        <v>-0.02324511491388559</v>
       </c>
       <c r="D28">
-        <v>-0.2663301846973956</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2605406612026485</v>
+      </c>
+      <c r="E28">
+        <v>0.06863493157099548</v>
+      </c>
+      <c r="F28">
+        <v>0.004005967354871832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02562055459667703</v>
+        <v>0.02855033731600104</v>
       </c>
       <c r="C29">
-        <v>0.009822442002936341</v>
+        <v>-0.008920224334881714</v>
       </c>
       <c r="D29">
-        <v>0.02824933624893687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03010099881016023</v>
+      </c>
+      <c r="E29">
+        <v>-0.01284559259063101</v>
+      </c>
+      <c r="F29">
+        <v>-0.01368504685816949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06119550980232685</v>
+        <v>0.0581623756882383</v>
       </c>
       <c r="C30">
-        <v>0.008567799999586286</v>
+        <v>-0.002795137631018101</v>
       </c>
       <c r="D30">
-        <v>0.07661187356844985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08760813599685005</v>
+      </c>
+      <c r="E30">
+        <v>-0.01424647268907555</v>
+      </c>
+      <c r="F30">
+        <v>0.07871945306975385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05103256747091666</v>
+        <v>0.05154990859891526</v>
       </c>
       <c r="C31">
-        <v>0.01745035160106924</v>
+        <v>-0.01622490870915071</v>
       </c>
       <c r="D31">
-        <v>0.02167229044928301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02460687476741011</v>
+      </c>
+      <c r="E31">
+        <v>-0.02864098155408562</v>
+      </c>
+      <c r="F31">
+        <v>-0.0004740104008817411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04896533174198468</v>
+        <v>0.05252094969289374</v>
       </c>
       <c r="C32">
-        <v>0.002523723666733401</v>
+        <v>0.001293560077801371</v>
       </c>
       <c r="D32">
-        <v>0.02646553587472371</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03389677553538704</v>
+      </c>
+      <c r="E32">
+        <v>-0.03334196202562877</v>
+      </c>
+      <c r="F32">
+        <v>0.003022759097275165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09065152931165467</v>
+        <v>0.08954234853874021</v>
       </c>
       <c r="C33">
-        <v>0.01335199091823593</v>
+        <v>-0.007308561161618028</v>
       </c>
       <c r="D33">
-        <v>0.08807441445962465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1032709584159714</v>
+      </c>
+      <c r="E33">
+        <v>-0.04687027525566095</v>
+      </c>
+      <c r="F33">
+        <v>0.04308770873589642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06880759040610622</v>
+        <v>0.06703738814102728</v>
       </c>
       <c r="C34">
-        <v>0.01561301163731737</v>
+        <v>-0.01058969986051224</v>
       </c>
       <c r="D34">
-        <v>0.09717696759385175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093927237565902</v>
+      </c>
+      <c r="E34">
+        <v>-0.03566850075196487</v>
+      </c>
+      <c r="F34">
+        <v>0.03460412294444944</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02533896695541226</v>
+        <v>0.0266754645903126</v>
       </c>
       <c r="C35">
-        <v>0.003725076029317755</v>
+        <v>-0.003148080136724651</v>
       </c>
       <c r="D35">
-        <v>0.008191408363949612</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01219187600537447</v>
+      </c>
+      <c r="E35">
+        <v>-0.0126917573191439</v>
+      </c>
+      <c r="F35">
+        <v>0.0006687088452469952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02464720139015674</v>
+        <v>0.02809072718643118</v>
       </c>
       <c r="C36">
-        <v>0.00808446181651072</v>
+        <v>-0.006920562677369676</v>
       </c>
       <c r="D36">
-        <v>0.03837649668019743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03889299047483904</v>
+      </c>
+      <c r="E36">
+        <v>-0.01706385789558789</v>
+      </c>
+      <c r="F36">
+        <v>0.01383328843406494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001449151733218589</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008362665775941645</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003045123138646123</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001621494961478377</v>
+      </c>
+      <c r="F37">
+        <v>-0.001786860734199506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1119200537148221</v>
+        <v>0.1009915568760536</v>
       </c>
       <c r="C39">
-        <v>0.0232790992625217</v>
+        <v>-0.01644778077966007</v>
       </c>
       <c r="D39">
-        <v>0.1467439437061154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1506055016771423</v>
+      </c>
+      <c r="E39">
+        <v>-0.05918454144688626</v>
+      </c>
+      <c r="F39">
+        <v>0.02174995394726132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03841793672903068</v>
+        <v>0.04353971644993051</v>
       </c>
       <c r="C40">
-        <v>0.009337416421892277</v>
+        <v>-0.007770635420754954</v>
       </c>
       <c r="D40">
-        <v>0.02342841917901222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03275129699372744</v>
+      </c>
+      <c r="E40">
+        <v>-0.001841962703906942</v>
+      </c>
+      <c r="F40">
+        <v>-0.01555551796775966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02477956780052046</v>
+        <v>0.02677021175422532</v>
       </c>
       <c r="C41">
-        <v>0.007240270462287719</v>
+        <v>-0.00676653913754431</v>
       </c>
       <c r="D41">
-        <v>0.009129824433845269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0107455307583794</v>
+      </c>
+      <c r="E41">
+        <v>-0.01144843031109415</v>
+      </c>
+      <c r="F41">
+        <v>-0.007329245619754668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04172291286009704</v>
+        <v>0.03983008705450613</v>
       </c>
       <c r="C43">
-        <v>0.008311177166396571</v>
+        <v>-0.007656222031225115</v>
       </c>
       <c r="D43">
-        <v>0.01728528738893662</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01929170334490757</v>
+      </c>
+      <c r="E43">
+        <v>-0.02517734828244085</v>
+      </c>
+      <c r="F43">
+        <v>-0.0160811714916941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06934152207233388</v>
+        <v>0.0780346528168626</v>
       </c>
       <c r="C44">
-        <v>0.02446169971005179</v>
+        <v>-0.01978494124452355</v>
       </c>
       <c r="D44">
-        <v>0.09739718067195849</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09663286249183968</v>
+      </c>
+      <c r="E44">
+        <v>-0.06225546966752823</v>
+      </c>
+      <c r="F44">
+        <v>0.1679786288112057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02135121076726414</v>
+        <v>0.02455038181577867</v>
       </c>
       <c r="C46">
-        <v>0.004496864945838379</v>
+        <v>-0.003670968173126828</v>
       </c>
       <c r="D46">
-        <v>0.01009019851456758</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0129019400396767</v>
+      </c>
+      <c r="E46">
+        <v>-0.02688416139706465</v>
+      </c>
+      <c r="F46">
+        <v>-0.005663842185617554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05240260728931429</v>
+        <v>0.05197120597567023</v>
       </c>
       <c r="C47">
-        <v>0.005180129426219924</v>
+        <v>-0.004452344848961232</v>
       </c>
       <c r="D47">
-        <v>0.006316703568162335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01071266263384731</v>
+      </c>
+      <c r="E47">
+        <v>-0.02250784561759664</v>
+      </c>
+      <c r="F47">
+        <v>-0.03183572929829528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04843615324224065</v>
+        <v>0.05105694591477169</v>
       </c>
       <c r="C48">
-        <v>0.005123646313724253</v>
+        <v>-0.002371483293821367</v>
       </c>
       <c r="D48">
-        <v>0.04643842626986965</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05009116527977855</v>
+      </c>
+      <c r="E48">
+        <v>0.004503015438459382</v>
+      </c>
+      <c r="F48">
+        <v>0.01250520802084663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1993042201595294</v>
+        <v>0.2005333511107448</v>
       </c>
       <c r="C49">
-        <v>0.0223208283726869</v>
+        <v>-0.02096772276469772</v>
       </c>
       <c r="D49">
-        <v>-0.01406075186375066</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004818956954704209</v>
+      </c>
+      <c r="E49">
+        <v>-0.03363130478505877</v>
+      </c>
+      <c r="F49">
+        <v>0.04886802639621771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04943431882590138</v>
+        <v>0.05151679798748535</v>
       </c>
       <c r="C50">
-        <v>0.01316435401695035</v>
+        <v>-0.01181982425983999</v>
       </c>
       <c r="D50">
-        <v>0.02001112860979939</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02313485877108401</v>
+      </c>
+      <c r="E50">
+        <v>-0.02969501853982184</v>
+      </c>
+      <c r="F50">
+        <v>0.009515779954921177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1559099871482366</v>
+        <v>0.1491666133351008</v>
       </c>
       <c r="C52">
-        <v>0.02109470304588252</v>
+        <v>-0.0193555964824601</v>
       </c>
       <c r="D52">
-        <v>0.04247413351445072</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04224601497589338</v>
+      </c>
+      <c r="E52">
+        <v>-0.02294717476162767</v>
+      </c>
+      <c r="F52">
+        <v>0.04200506851317413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1748160576762975</v>
+        <v>0.1694252652824583</v>
       </c>
       <c r="C53">
-        <v>0.02190710808937793</v>
+        <v>-0.02230509262535737</v>
       </c>
       <c r="D53">
-        <v>0.006354295289353943</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005654113020858806</v>
+      </c>
+      <c r="E53">
+        <v>-0.03056308905480376</v>
+      </c>
+      <c r="F53">
+        <v>0.07508740352257673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01777546862217939</v>
+        <v>0.01947613618322452</v>
       </c>
       <c r="C54">
-        <v>0.0122990435104161</v>
+        <v>-0.01086204731047815</v>
       </c>
       <c r="D54">
-        <v>0.03087252201654522</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03216283922494254</v>
+      </c>
+      <c r="E54">
+        <v>-0.02050241612249128</v>
+      </c>
+      <c r="F54">
+        <v>-0.002295563817734416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1175678316529758</v>
+        <v>0.1160548497942235</v>
       </c>
       <c r="C55">
-        <v>0.01919773248213439</v>
+        <v>-0.01932194797626783</v>
       </c>
       <c r="D55">
-        <v>0.004551877685256442</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008122339820978264</v>
+      </c>
+      <c r="E55">
+        <v>-0.02583163074152955</v>
+      </c>
+      <c r="F55">
+        <v>0.04667019053313186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805278628122063</v>
+        <v>0.1757991887972498</v>
       </c>
       <c r="C56">
-        <v>0.01962565165221931</v>
+        <v>-0.02035181608572218</v>
       </c>
       <c r="D56">
-        <v>-0.006189904907523667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003105866414204288</v>
+      </c>
+      <c r="E56">
+        <v>-0.0326627359562263</v>
+      </c>
+      <c r="F56">
+        <v>0.055063502303391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04817528166103648</v>
+        <v>0.04621965588915812</v>
       </c>
       <c r="C58">
-        <v>0.00544903339216849</v>
+        <v>-0.0002900813564007994</v>
       </c>
       <c r="D58">
-        <v>0.06386451561856164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07638603074672114</v>
+      </c>
+      <c r="E58">
+        <v>-0.03691355335295543</v>
+      </c>
+      <c r="F58">
+        <v>-0.03784746590372561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1607091560601079</v>
+        <v>0.1671504484451125</v>
       </c>
       <c r="C59">
-        <v>0.01521848451809741</v>
+        <v>-0.0236771256332354</v>
       </c>
       <c r="D59">
-        <v>-0.2252980033283503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2180896492272393</v>
+      </c>
+      <c r="E59">
+        <v>0.05002049905490311</v>
+      </c>
+      <c r="F59">
+        <v>-0.03869411306960728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2394967734617709</v>
+        <v>0.2308750659152153</v>
       </c>
       <c r="C60">
-        <v>0.003773849091093929</v>
+        <v>-0.001070363028532606</v>
       </c>
       <c r="D60">
-        <v>0.03564235298603905</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03840380094747502</v>
+      </c>
+      <c r="E60">
+        <v>-0.006651497060463944</v>
+      </c>
+      <c r="F60">
+        <v>0.006664690258574838</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08333622233778561</v>
+        <v>0.07641128016410677</v>
       </c>
       <c r="C61">
-        <v>0.01728490455548048</v>
+        <v>-0.01152442761530867</v>
       </c>
       <c r="D61">
-        <v>0.1081821053623768</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1153683850363492</v>
+      </c>
+      <c r="E61">
+        <v>-0.03735126988594617</v>
+      </c>
+      <c r="F61">
+        <v>0.008282886997140266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1726504519037199</v>
+        <v>0.1691125110277463</v>
       </c>
       <c r="C62">
-        <v>0.02361511673767848</v>
+        <v>-0.02315796741336061</v>
       </c>
       <c r="D62">
-        <v>-0.0002610677925053763</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00605024594367167</v>
+      </c>
+      <c r="E62">
+        <v>-0.03458070594412305</v>
+      </c>
+      <c r="F62">
+        <v>0.04111423480003246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04122110684499049</v>
+        <v>0.04540089532015438</v>
       </c>
       <c r="C63">
-        <v>0.005431792553462518</v>
+        <v>-0.001793061277570655</v>
       </c>
       <c r="D63">
-        <v>0.04803016473232213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06014652736354727</v>
+      </c>
+      <c r="E63">
+        <v>-0.02390276231867217</v>
+      </c>
+      <c r="F63">
+        <v>0.0003143775324616095</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1137000528876889</v>
+        <v>0.1112871294995407</v>
       </c>
       <c r="C64">
-        <v>0.01627220223938915</v>
+        <v>-0.01314393731523243</v>
       </c>
       <c r="D64">
-        <v>0.0321033130494093</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0420093123138562</v>
+      </c>
+      <c r="E64">
+        <v>-0.02384800789197478</v>
+      </c>
+      <c r="F64">
+        <v>0.02633532454380658</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.145036293865576</v>
+        <v>0.1521434529086653</v>
       </c>
       <c r="C65">
-        <v>0.03559227333133935</v>
+        <v>-0.03608653336061317</v>
       </c>
       <c r="D65">
-        <v>-0.05897009204240061</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04636495462084373</v>
+      </c>
+      <c r="E65">
+        <v>-0.007493767099669415</v>
+      </c>
+      <c r="F65">
+        <v>0.03777613967350373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.135432032084933</v>
+        <v>0.1217499985386684</v>
       </c>
       <c r="C66">
-        <v>0.02192717993855028</v>
+        <v>-0.01503868513163113</v>
       </c>
       <c r="D66">
-        <v>0.1287318682403409</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.139593791910412</v>
+      </c>
+      <c r="E66">
+        <v>-0.06494467427992225</v>
+      </c>
+      <c r="F66">
+        <v>0.0267501297738954</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0630128288100823</v>
+        <v>0.05586594584995982</v>
       </c>
       <c r="C67">
-        <v>0.00605648252971069</v>
+        <v>-0.003660252872685839</v>
       </c>
       <c r="D67">
-        <v>0.05279138809909344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05758734538993329</v>
+      </c>
+      <c r="E67">
+        <v>-0.01888426735046455</v>
+      </c>
+      <c r="F67">
+        <v>-0.03394195264503806</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1064838200216296</v>
+        <v>0.116766483503772</v>
       </c>
       <c r="C68">
-        <v>0.0235221654285119</v>
+        <v>-0.03400129448928734</v>
       </c>
       <c r="D68">
-        <v>-0.2636627912659228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609265957589577</v>
+      </c>
+      <c r="E68">
+        <v>0.08922103431958182</v>
+      </c>
+      <c r="F68">
+        <v>0.0004971886926791217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03934899996258373</v>
+        <v>0.03820720180861324</v>
       </c>
       <c r="C69">
-        <v>0.002342293226375028</v>
+        <v>-0.001370416805401598</v>
       </c>
       <c r="D69">
-        <v>0.00599102787982444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008644964944325359</v>
+      </c>
+      <c r="E69">
+        <v>-0.02412912623424918</v>
+      </c>
+      <c r="F69">
+        <v>-0.0002156637737113938</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06664500025103838</v>
+        <v>0.06736792659017024</v>
       </c>
       <c r="C70">
-        <v>-0.02382755714864923</v>
+        <v>0.02648591946637018</v>
       </c>
       <c r="D70">
-        <v>0.01710503293259463</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02594037158532077</v>
+      </c>
+      <c r="E70">
+        <v>0.02985357441358468</v>
+      </c>
+      <c r="F70">
+        <v>-0.1816823415304284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1252227997375442</v>
+        <v>0.1367422961918943</v>
       </c>
       <c r="C71">
-        <v>0.02806814160459311</v>
+        <v>-0.03865698428094672</v>
       </c>
       <c r="D71">
-        <v>-0.2808895113468871</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2708838568869465</v>
+      </c>
+      <c r="E71">
+        <v>0.09846844970786779</v>
+      </c>
+      <c r="F71">
+        <v>0.006216979084102603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1381695818783459</v>
+        <v>0.1442991688377548</v>
       </c>
       <c r="C72">
-        <v>0.02834204120594488</v>
+        <v>-0.02893572230894307</v>
       </c>
       <c r="D72">
-        <v>0.001334491163749974</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004392406776485364</v>
+      </c>
+      <c r="E72">
+        <v>-0.03873867222038561</v>
+      </c>
+      <c r="F72">
+        <v>0.02742992212769143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2044558223728676</v>
+        <v>0.204313418520211</v>
       </c>
       <c r="C73">
-        <v>0.01759362772972868</v>
+        <v>-0.01412204836359638</v>
       </c>
       <c r="D73">
-        <v>0.006687047746337004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01805582213059135</v>
+      </c>
+      <c r="E73">
+        <v>-0.0671591638038368</v>
+      </c>
+      <c r="F73">
+        <v>0.04433234330019901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09273918410510001</v>
+        <v>0.0938774650414205</v>
       </c>
       <c r="C74">
-        <v>0.01475306701370139</v>
+        <v>-0.01430041375522397</v>
       </c>
       <c r="D74">
-        <v>0.01478842121699972</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01687324917698677</v>
+      </c>
+      <c r="E74">
+        <v>-0.04393938225163451</v>
+      </c>
+      <c r="F74">
+        <v>0.05254990766254542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1338505148690747</v>
+        <v>0.1263639309558714</v>
       </c>
       <c r="C75">
-        <v>0.03159735537976272</v>
+        <v>-0.0301097223946967</v>
       </c>
       <c r="D75">
-        <v>0.02281471213492964</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0287515899986267</v>
+      </c>
+      <c r="E75">
+        <v>-0.05686192716418513</v>
+      </c>
+      <c r="F75">
+        <v>0.02183444380043534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08282871159840079</v>
+        <v>0.09239453042493263</v>
       </c>
       <c r="C77">
-        <v>0.01507213446838425</v>
+        <v>-0.008886725180055481</v>
       </c>
       <c r="D77">
-        <v>0.1053219302202871</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1152169623489455</v>
+      </c>
+      <c r="E77">
+        <v>-0.04763036810825222</v>
+      </c>
+      <c r="F77">
+        <v>0.03550950454693207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09978971913949464</v>
+        <v>0.1004423660934601</v>
       </c>
       <c r="C78">
-        <v>0.04384991675858421</v>
+        <v>-0.03933744270734954</v>
       </c>
       <c r="D78">
-        <v>0.1112807864919206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1104142206173929</v>
+      </c>
+      <c r="E78">
+        <v>-0.07519187848865315</v>
+      </c>
+      <c r="F78">
+        <v>0.05413415202781499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.166244522912625</v>
+        <v>0.1632092436444372</v>
       </c>
       <c r="C79">
-        <v>0.02633040663975215</v>
+        <v>-0.02542520173573021</v>
       </c>
       <c r="D79">
-        <v>0.007176046422038075</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01214775695117032</v>
+      </c>
+      <c r="E79">
+        <v>-0.04406081811355456</v>
+      </c>
+      <c r="F79">
+        <v>0.01271367541562585</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08089129084416816</v>
+        <v>0.07958166182662728</v>
       </c>
       <c r="C80">
-        <v>0.001959624797548489</v>
+        <v>0.0003231653753946831</v>
       </c>
       <c r="D80">
-        <v>0.05497914286278311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05357981050052701</v>
+      </c>
+      <c r="E80">
+        <v>-0.03277427118306334</v>
+      </c>
+      <c r="F80">
+        <v>-0.0262666855268288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1206756313511874</v>
+        <v>0.1165634960701266</v>
       </c>
       <c r="C81">
-        <v>0.03343931445365193</v>
+        <v>-0.0335059777365436</v>
       </c>
       <c r="D81">
-        <v>0.01049760552050804</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01295092265077988</v>
+      </c>
+      <c r="E81">
+        <v>-0.05404087602188708</v>
+      </c>
+      <c r="F81">
+        <v>0.01780428132785771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1662510533601767</v>
+        <v>0.1653893677496824</v>
       </c>
       <c r="C82">
-        <v>0.02686498310770228</v>
+        <v>-0.02781012705732736</v>
       </c>
       <c r="D82">
-        <v>0.006800960082486534</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003070425030017286</v>
+      </c>
+      <c r="E82">
+        <v>-0.02875299498545274</v>
+      </c>
+      <c r="F82">
+        <v>0.08227690677796973</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06416995479241887</v>
+        <v>0.05795032758731737</v>
       </c>
       <c r="C83">
-        <v>0.00626157246557114</v>
+        <v>-0.003695172582991495</v>
       </c>
       <c r="D83">
-        <v>0.0428283468422641</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04729386986003389</v>
+      </c>
+      <c r="E83">
+        <v>-0.001494628965964709</v>
+      </c>
+      <c r="F83">
+        <v>-0.0365548162782478</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06207013524069739</v>
+        <v>0.05621857462452551</v>
       </c>
       <c r="C84">
-        <v>0.01378563103481098</v>
+        <v>-0.01107643712809532</v>
       </c>
       <c r="D84">
-        <v>0.07022051408407753</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07229989352149556</v>
+      </c>
+      <c r="E84">
+        <v>-0.01412545575808361</v>
+      </c>
+      <c r="F84">
+        <v>0.01542262807318891</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1394074316723681</v>
+        <v>0.1347545345166945</v>
       </c>
       <c r="C85">
-        <v>0.03040574064679156</v>
+        <v>-0.03018738423209002</v>
       </c>
       <c r="D85">
-        <v>0.00756461455827661</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009776350886967444</v>
+      </c>
+      <c r="E85">
+        <v>-0.03688031603952491</v>
+      </c>
+      <c r="F85">
+        <v>0.04763123862700192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1021403535368393</v>
+        <v>0.09347926935139017</v>
       </c>
       <c r="C86">
-        <v>-0.002345750580726011</v>
+        <v>0.00518836002340271</v>
       </c>
       <c r="D86">
-        <v>0.01091011999341396</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05146677910862264</v>
+      </c>
+      <c r="E86">
+        <v>-0.2227445813794214</v>
+      </c>
+      <c r="F86">
+        <v>-0.8982870242756861</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09623145406227432</v>
+        <v>0.09221216713276859</v>
       </c>
       <c r="C87">
-        <v>0.02829396509947519</v>
+        <v>-0.01986527049519113</v>
       </c>
       <c r="D87">
-        <v>0.07367132661278017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0955282616680256</v>
+      </c>
+      <c r="E87">
+        <v>0.05229824707177207</v>
+      </c>
+      <c r="F87">
+        <v>0.04953081568452736</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06230886496196258</v>
+        <v>0.06092070776928185</v>
       </c>
       <c r="C88">
-        <v>0.005394872832194974</v>
+        <v>-0.002707107846020417</v>
       </c>
       <c r="D88">
-        <v>0.05082952014047797</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0496655464248172</v>
+      </c>
+      <c r="E88">
+        <v>-0.02416671358920698</v>
+      </c>
+      <c r="F88">
+        <v>0.01427436420761249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1166620193212956</v>
+        <v>0.1262617559368252</v>
       </c>
       <c r="C89">
-        <v>0.004828925651169329</v>
+        <v>-0.01395829074003486</v>
       </c>
       <c r="D89">
-        <v>-0.2462421691354415</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2433664209213037</v>
+      </c>
+      <c r="E89">
+        <v>0.0931386603630816</v>
+      </c>
+      <c r="F89">
+        <v>-0.007702091879042626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1381751358997724</v>
+        <v>0.152194420699557</v>
       </c>
       <c r="C90">
-        <v>0.02421662815136609</v>
+        <v>-0.03540446326888925</v>
       </c>
       <c r="D90">
-        <v>-0.2647796733347751</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2681768207528986</v>
+      </c>
+      <c r="E90">
+        <v>0.1142540581791899</v>
+      </c>
+      <c r="F90">
+        <v>-0.008799978361390374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1213384601079072</v>
+        <v>0.1202865300806272</v>
       </c>
       <c r="C91">
-        <v>0.02106916385642261</v>
+        <v>-0.02172075677816862</v>
       </c>
       <c r="D91">
-        <v>-0.01960009716659883</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01695317621336295</v>
+      </c>
+      <c r="E91">
+        <v>-0.05369280735320372</v>
+      </c>
+      <c r="F91">
+        <v>-0.001706889087594381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1377331308293259</v>
+        <v>0.1453233816354777</v>
       </c>
       <c r="C92">
-        <v>0.01481537372727854</v>
+        <v>-0.02642177488903639</v>
       </c>
       <c r="D92">
-        <v>-0.2971241313648159</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2948309466791005</v>
+      </c>
+      <c r="E92">
+        <v>0.1047637948833662</v>
+      </c>
+      <c r="F92">
+        <v>-0.01766785489383191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1405045603441925</v>
+        <v>0.1528103279337003</v>
       </c>
       <c r="C93">
-        <v>0.02051623784614181</v>
+        <v>-0.03050200962887416</v>
       </c>
       <c r="D93">
-        <v>-0.2663429127842478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2641704552651504</v>
+      </c>
+      <c r="E93">
+        <v>0.07673569554366613</v>
+      </c>
+      <c r="F93">
+        <v>0.002212637322199643</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.134294658474017</v>
+        <v>0.1265588980865137</v>
       </c>
       <c r="C94">
-        <v>0.02817250231608923</v>
+        <v>-0.02619937772301439</v>
       </c>
       <c r="D94">
-        <v>0.03786284675289111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04035630780312779</v>
+      </c>
+      <c r="E94">
+        <v>-0.05734354139761756</v>
+      </c>
+      <c r="F94">
+        <v>0.03181738527190212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1251803880035982</v>
+        <v>0.1283296046240892</v>
       </c>
       <c r="C95">
-        <v>0.01010620298366858</v>
+        <v>-0.004594456668628026</v>
       </c>
       <c r="D95">
-        <v>0.08626252541354586</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09766221412203277</v>
+      </c>
+      <c r="E95">
+        <v>-0.05520962211087182</v>
+      </c>
+      <c r="F95">
+        <v>0.001873135372522801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.125170416964513</v>
+        <v>0.1202435543290613</v>
       </c>
       <c r="C96">
-        <v>-0.9864979916469592</v>
+        <v>0.9859532356855371</v>
       </c>
       <c r="D96">
-        <v>-0.0154279067912289</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05122345856628653</v>
+      </c>
+      <c r="E96">
+        <v>-0.0514324428121627</v>
+      </c>
+      <c r="F96">
+        <v>0.04222523770397226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1955626473788787</v>
+        <v>0.1970512951967218</v>
       </c>
       <c r="C97">
-        <v>-0.0036335468853762</v>
+        <v>0.003906006541468119</v>
       </c>
       <c r="D97">
-        <v>-0.01846612935143248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02050761964395648</v>
+      </c>
+      <c r="E97">
+        <v>-0.02566242467033253</v>
+      </c>
+      <c r="F97">
+        <v>-0.1218808289540331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1987104670206465</v>
+        <v>0.2050782712113581</v>
       </c>
       <c r="C98">
-        <v>0.01223578207888652</v>
+        <v>-0.008393867099891076</v>
       </c>
       <c r="D98">
-        <v>0.01167214535171447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01565210881804928</v>
+      </c>
+      <c r="E98">
+        <v>0.07521808178752942</v>
+      </c>
+      <c r="F98">
+        <v>-0.09140309321098387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05573172966406121</v>
+        <v>0.05544339541981339</v>
       </c>
       <c r="C99">
-        <v>-0.001583335664197398</v>
+        <v>0.003762048092645057</v>
       </c>
       <c r="D99">
-        <v>0.03002030395843304</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0386597788264473</v>
+      </c>
+      <c r="E99">
+        <v>-0.02181540294844882</v>
+      </c>
+      <c r="F99">
+        <v>0.003325460924175428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1460528571401986</v>
+        <v>0.1313936271974783</v>
       </c>
       <c r="C100">
-        <v>-0.03694124016095636</v>
+        <v>0.05006373064410646</v>
       </c>
       <c r="D100">
-        <v>0.3984612259622304</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3546857120581806</v>
+      </c>
+      <c r="E100">
+        <v>0.8847220983939578</v>
+      </c>
+      <c r="F100">
+        <v>-0.148567782231525</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02563915335596964</v>
+        <v>0.02860870022776651</v>
       </c>
       <c r="C101">
-        <v>0.009845944203790993</v>
+        <v>-0.008951894493922245</v>
       </c>
       <c r="D101">
-        <v>0.02786758685170023</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02973546303656834</v>
+      </c>
+      <c r="E101">
+        <v>-0.01232311776925181</v>
+      </c>
+      <c r="F101">
+        <v>-0.01504141968381015</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
